--- a/users3.xlsx
+++ b/users3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senyashago/Desktop/Бот практика/bez/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senyashago/Desktop/PythonWork/beznazvaniya_2023/beznazvaniya_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A021D2F7-B467-684D-9E07-66BEDB9372A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0950887F-6EB9-3043-B277-447B4D3A5F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +75,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -142,15 +148,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -467,9 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -481,8 +486,8 @@
     <col min="6" max="6" width="43.83203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="32" style="4" customWidth="1"/>
-    <col min="9" max="11" width="10.83203125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="4"/>
+    <col min="9" max="12" width="10.83203125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -512,14 +517,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -529,67 +534,67 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -599,24 +604,78 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
-    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
     <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -10594,7 +10653,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
